--- a/src/files/tempPDF/etatSalePaiemnt.xlsx
+++ b/src/files/tempPDF/etatSalePaiemnt.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Édité le : 18/02/2025 à 14:54:24
+    <t>Édité le : 26/02/2025 à 13:18:36
 Par : </t>
   </si>
   <si>
@@ -44,9 +44,6 @@
     <t>Signataire</t>
   </si>
   <si>
-    <t>Vente</t>
-  </si>
-  <si>
     <t>SOFIEN AMICH</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -226,10 +226,9 @@
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
+    <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -239,9 +238,8 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="40" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="40" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -251,9 +249,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -263,14 +260,13 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -292,13 +288,10 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="B6" s="9">
         <v>45638</v>
@@ -307,7 +300,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>2</v>
@@ -318,64 +311,55 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="10" t="n">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5"/>
-      <c r="B7" s="9">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9">
         <v>45678</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C9" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9">
-        <v>45638</v>
-      </c>
-      <c r="C8" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>35932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="n">
-        <v>6</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>2</v>
@@ -386,33 +370,29 @@
       <c r="G9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="5"/>
-      <c r="B10" s="9">
-        <v>45678</v>
-      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="10" t="n">
         <v>35924</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>45678</v>
@@ -421,24 +401,21 @@
         <v>4</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="11" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" s="10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B12" s="9">
         <v>45678</v>
@@ -447,29 +424,26 @@
         <v>23</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="10" t="n">
-        <v>38440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="n">
         <v>40</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>2</v>
@@ -480,16 +454,15 @@
       <c r="G13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="n">
         <v>38377</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>2</v>
@@ -500,38 +473,40 @@
       <c r="G14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="n">
         <v>74447</v>
       </c>
-      <c r="H15" s="13" t="n">
-        <v>75100</v>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B7:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B10:B10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A11"/>
     <mergeCell ref="B11:B11"/>
-    <mergeCell ref="H11:H11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="H12:H14"/>
     <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
